--- a/output/Datos_Filtrados_CNI.xlsx
+++ b/output/Datos_Filtrados_CNI.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,95 +525,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Incidente de [System]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MS-73739</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Brayan Steven Gomez Carrillo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Angie Carolina Badillo Vargas</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Pendiente Proveedor</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45639.51083524305</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>45639.61622121528</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Asignación &amp; Análisis</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" s="2" t="n">
-        <v>45639.51237960648</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SIFI</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>ITC</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>140641</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Al enviar un retiro de odoo a sifi genera error en SIPBANCOS.</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al enviar un retiro de odoo a sifi genera el siguiente error en SIPBANCOS.
-“env:Server
-Exception occurred when binding was invoked.
-Exception occurred during invocation of JCA binding: "JCA Binding execute of Reference operation 'dbReference' failed due to: XSD object conversion error.
-An error occurred while parsing XML representing a Java object.
-Unable to convert the XSD element P_CTA_RECA_I whose SQL type is INTEGER and JDBC type is INTEGER. Cause: java.lang.NumberFormatException: For input string: "80105975396"
-Check to ensure that the XML data describing the object matches the definition of the element in the XSD. This exception is considered not retriable, likely due to a modelling mistake.
-".
-The invoked JCA adapter raised a resource exception.
-Please examine the above error message carefully to determine a resolution.
-For input string: "80105975396" 
- </t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Asistencia técnica</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
